--- a/draw_results.xlsx
+++ b/draw_results.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1947"/>
+  <dimension ref="A1:K1949"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63413,6 +63413,72 @@
         <v>10</v>
       </c>
     </row>
+    <row r="1948">
+      <c r="A1948" t="n">
+        <v>1947</v>
+      </c>
+      <c r="B1948" s="2" t="n">
+        <v>43922</v>
+      </c>
+      <c r="C1948" t="n">
+        <v>35</v>
+      </c>
+      <c r="D1948" t="n">
+        <v>28</v>
+      </c>
+      <c r="E1948" t="n">
+        <v>21</v>
+      </c>
+      <c r="F1948" t="n">
+        <v>25</v>
+      </c>
+      <c r="G1948" t="n">
+        <v>8</v>
+      </c>
+      <c r="H1948" t="n">
+        <v>32</v>
+      </c>
+      <c r="I1948" t="n">
+        <v>18</v>
+      </c>
+      <c r="J1948" t="inlineStr"/>
+      <c r="K1948" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1949">
+      <c r="A1949" t="n">
+        <v>1948</v>
+      </c>
+      <c r="B1949" s="2" t="n">
+        <v>43925</v>
+      </c>
+      <c r="C1949" t="n">
+        <v>20</v>
+      </c>
+      <c r="D1949" t="n">
+        <v>10</v>
+      </c>
+      <c r="E1949" t="n">
+        <v>6</v>
+      </c>
+      <c r="F1949" t="n">
+        <v>11</v>
+      </c>
+      <c r="G1949" t="n">
+        <v>13</v>
+      </c>
+      <c r="H1949" t="n">
+        <v>30</v>
+      </c>
+      <c r="I1949" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1949" t="inlineStr"/>
+      <c r="K1949" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
